--- a/Updated_Project_Requirements_Template_Recreated.xlsx
+++ b/Updated_Project_Requirements_Template_Recreated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ssn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
     <t>요구 사항</t>
   </si>
   <si>
-    <t>우선 순위 (높음/중간/낮음)</t>
-  </si>
-  <si>
     <t>상세 설명</t>
   </si>
   <si>
@@ -261,6 +258,10 @@
   </si>
   <si>
     <t>사용자의 개인정보는 안전하게 처리 및 저장되어야 함. 필요한 경우에만 접근이 허용되어야 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 순위</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -337,6 +338,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,19 +649,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,374 +673,385 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
